--- a/ppi_datasets/LLL_with_INO/LLL.xlsx
+++ b/ppi_datasets/LLL_with_INO/LLL.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B3LAB\PycharmProjects\bc_bioredProject\ppi_datasets\LLL_with_INO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="825" yWindow="405" windowWidth="24015" windowHeight="12240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="LLL-interactions.txt" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="422">
   <si>
     <t>KinC</t>
   </si>
@@ -1288,18 +1293,12 @@
   </si>
   <si>
     <t>Direct dependency relations</t>
-  </si>
-  <si>
-    <t>The Staford Parser was used to obtain the depedency relations.</t>
-  </si>
-  <si>
-    <t>The depedency relations for two keyword interactions were examined.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2192,744 +2191,744 @@
     </xf>
   </cellXfs>
   <cellStyles count="739">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="474" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="476" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="478" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="480" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="484" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="486" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="488" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="490" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="492" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="494" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="496" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="498" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="500" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="502" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="504" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="506" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="508" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="510" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="512" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="514" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="516" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="518" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="520" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="522" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="524" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="526" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="528" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="530" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="532" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="534" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="536" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="538" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="540" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="542" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="544" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="546" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="548" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="550" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="552" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="554" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="556" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="558" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="560" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="562" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="564" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="566" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="568" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="570" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="572" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="574" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="576" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="578" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="580" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="582" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="584" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="586" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="588" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="590" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="592" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="594" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="596" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="598" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="600" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="602" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="604" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="606" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="608" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="610" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="612" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="614" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="616" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="618" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="620" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="622" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="624" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="626" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="628" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="630" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="632" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="634" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="636" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="638" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="640" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="642" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="644" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="646" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="648" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="650" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="652" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="654" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="656" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="658" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="660" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="662" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="664" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="666" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="668" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="670" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="672" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="674" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="676" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="678" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="680" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="682" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="684" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="686" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="688" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="690" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="692" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="694" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="696" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="698" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="700" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="702" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="704" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="706" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="708" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="710" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="712" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="714" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="716" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="718" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="720" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="722" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="724" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="726" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="728" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="730" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="732" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="734" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="736" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="738" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="451" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="453" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="455" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="457" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="459" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="461" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="463" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="471" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="473" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="475" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="477" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="479" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="481" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="483" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="485" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="487" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="489" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="491" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="493" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="495" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="497" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="499" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="501" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="503" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="505" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="507" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="509" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="511" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="513" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="515" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="517" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="519" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="521" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="523" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="525" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="527" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="529" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="531" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="533" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="535" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="537" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="539" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="541" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="543" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="545" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="547" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="549" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="551" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="553" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="555" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="557" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="559" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="561" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="563" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="565" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="567" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="569" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="571" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="573" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="575" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="577" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="579" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="581" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="583" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="585" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="587" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="589" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="591" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="593" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="595" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="597" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="599" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="601" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="603" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="605" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="607" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="609" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="611" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="613" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="615" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="617" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="619" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="621" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="623" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="625" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="627" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="629" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="631" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="633" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="635" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="637" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="639" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="641" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="643" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="645" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="647" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="649" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="651" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="653" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="655" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="657" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="659" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="661" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="663" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="665" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="667" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="669" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="671" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="673" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="675" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="677" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="679" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="681" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="683" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="685" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="687" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="689" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="691" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="693" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="695" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="697" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="699" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="701" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="703" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="705" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="707" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="709" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="711" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="713" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="715" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="717" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="719" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="721" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="723" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="725" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="727" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="729" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="731" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="733" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="735" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="737" builtinId="8" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="522" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="524" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="536" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="538" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="540" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="542" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="544" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="546" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="548" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="550" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="552" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="554" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="556" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="558" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="560" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="562" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="564" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="566" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="568" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="570" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="572" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="574" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="576" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="578" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="580" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="582" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="584" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="586" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="588" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="590" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="592" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="594" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="596" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="598" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="600" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="602" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="604" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="606" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="608" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="610" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="612" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="614" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="616" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="618" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="620" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="622" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="624" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="626" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="628" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="630" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="632" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="634" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="636" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="638" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="640" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="642" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="644" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="646" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="648" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="650" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="652" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="654" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="656" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="658" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="660" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="662" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="664" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="666" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="668" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="670" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="672" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="674" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="676" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="678" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="680" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="682" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="684" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="686" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="688" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="690" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="692" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="694" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="696" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="698" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="700" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="702" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="704" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="706" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="708" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="710" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="712" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="714" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="716" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="718" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="720" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="722" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="724" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="726" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="728" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="730" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="732" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="734" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="736" builtinId="9" hidden="1"/>
+    <cellStyle name="İzlenen Köprü" xfId="738" builtinId="9" hidden="1"/>
+    <cellStyle name="Köprü" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="503" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="505" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="507" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="509" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="511" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="513" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="515" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="517" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="519" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="521" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="523" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="525" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="527" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="529" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="531" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="533" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="535" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="537" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="539" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="541" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="543" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="545" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="547" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="549" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="551" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="553" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="555" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="557" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="559" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="561" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="563" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="565" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="567" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="569" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="571" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="573" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="575" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="577" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="579" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="581" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="583" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="585" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="587" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="589" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="591" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="593" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="595" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="597" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="599" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="601" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="603" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="605" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="607" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="609" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="611" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="613" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="615" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="617" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="619" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="621" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="623" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="625" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="627" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="629" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="631" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="633" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="635" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="637" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="639" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="641" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="643" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="645" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="647" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="649" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="651" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="653" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="655" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="657" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="659" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="661" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="663" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="665" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="667" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="669" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="671" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="673" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="675" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="677" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="679" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="681" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="683" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="685" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="687" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="689" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="691" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="693" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="695" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="697" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="699" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="701" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="703" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="705" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="707" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="709" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="711" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="713" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="715" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="717" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="719" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="721" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="723" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="725" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="727" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="729" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="731" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="733" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="735" builtinId="8" hidden="1"/>
+    <cellStyle name="Köprü" xfId="737" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2937,6 +2936,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3264,26 +3266,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H168"/>
+  <dimension ref="A1:K167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K166" sqref="K166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.3984375" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.3984375" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="72.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.125" customWidth="1"/>
+    <col min="8" max="8" width="72.3984375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>199</v>
       </c>
@@ -3309,7 +3311,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
@@ -3335,7 +3337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
@@ -3361,7 +3363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
@@ -3387,7 +3389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
@@ -3413,7 +3415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
@@ -3439,7 +3441,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>11</v>
       </c>
@@ -3465,7 +3467,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>11</v>
       </c>
@@ -3491,7 +3493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>16</v>
       </c>
@@ -3517,7 +3519,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>17</v>
       </c>
@@ -3543,7 +3545,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>20</v>
       </c>
@@ -3569,7 +3571,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>21</v>
       </c>
@@ -3595,7 +3597,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>23</v>
       </c>
@@ -3621,7 +3623,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>25</v>
       </c>
@@ -3647,7 +3649,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>25</v>
       </c>
@@ -3673,7 +3675,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>17</v>
       </c>
@@ -3699,7 +3701,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>20</v>
       </c>
@@ -3725,7 +3727,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>31</v>
       </c>
@@ -3751,7 +3753,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>34</v>
       </c>
@@ -3777,7 +3779,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>35</v>
       </c>
@@ -3803,7 +3805,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
         <v>38</v>
       </c>
@@ -3829,7 +3831,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>38</v>
       </c>
@@ -3855,7 +3857,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>42</v>
       </c>
@@ -3881,7 +3883,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="3" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>38</v>
       </c>
@@ -3907,7 +3909,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>21</v>
       </c>
@@ -3933,7 +3935,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="3" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>45</v>
       </c>
@@ -3959,7 +3961,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="3" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>47</v>
       </c>
@@ -3985,7 +3987,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="3" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>21</v>
       </c>
@@ -4011,7 +4013,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="4" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="4" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>21</v>
       </c>
@@ -4037,7 +4039,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="3" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="3" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>48</v>
       </c>
@@ -4063,7 +4065,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
         <v>51</v>
       </c>
@@ -4089,7 +4091,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="3" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>52</v>
       </c>
@@ -4115,7 +4117,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
         <v>54</v>
       </c>
@@ -4141,7 +4143,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="3" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>57</v>
       </c>
@@ -4167,7 +4169,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" s="2" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>60</v>
       </c>
@@ -4193,7 +4195,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" s="2" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>60</v>
       </c>
@@ -4219,7 +4221,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="2" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>60</v>
       </c>
@@ -4245,7 +4247,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" s="2" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>60</v>
       </c>
@@ -4271,7 +4273,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" s="4" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>66</v>
       </c>
@@ -4297,7 +4299,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
         <v>7</v>
       </c>
@@ -4323,7 +4325,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
         <v>69</v>
       </c>
@@ -4349,7 +4351,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
         <v>69</v>
       </c>
@@ -4375,7 +4377,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
         <v>66</v>
       </c>
@@ -4401,7 +4403,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" s="2" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
         <v>66</v>
       </c>
@@ -4427,7 +4429,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="4" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" s="4" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
         <v>23</v>
       </c>
@@ -4453,7 +4455,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A46" s="14" t="s">
         <v>23</v>
       </c>
@@ -4479,7 +4481,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="16" t="s">
         <v>21</v>
       </c>
@@ -4505,7 +4507,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" s="3" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
         <v>47</v>
       </c>
@@ -4531,7 +4533,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
         <v>21</v>
       </c>
@@ -4557,7 +4559,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="3" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
         <v>21</v>
       </c>
@@ -4583,7 +4585,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="3" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
         <v>21</v>
       </c>
@@ -4609,7 +4611,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
         <v>76</v>
       </c>
@@ -4635,7 +4637,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="3" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
         <v>21</v>
       </c>
@@ -4661,7 +4663,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" s="3" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="s">
         <v>38</v>
       </c>
@@ -4687,7 +4689,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="3" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
         <v>38</v>
       </c>
@@ -4713,7 +4715,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="3" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
         <v>38</v>
       </c>
@@ -4739,7 +4741,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="3" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
         <v>38</v>
       </c>
@@ -4765,7 +4767,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="3" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
         <v>38</v>
       </c>
@@ -4791,7 +4793,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
         <v>21</v>
       </c>
@@ -4817,7 +4819,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
         <v>66</v>
       </c>
@@ -4843,7 +4845,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="15" t="s">
         <v>66</v>
       </c>
@@ -4869,7 +4871,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="4" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A62" s="16" t="s">
         <v>16</v>
       </c>
@@ -4895,7 +4897,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
         <v>66</v>
       </c>
@@ -4921,7 +4923,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
         <v>16</v>
       </c>
@@ -4947,7 +4949,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="4" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A65" s="16" t="s">
         <v>16</v>
       </c>
@@ -4973,7 +4975,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="4" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="4" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A66" s="16" t="s">
         <v>16</v>
       </c>
@@ -4999,7 +5001,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="3" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="s">
         <v>66</v>
       </c>
@@ -5025,7 +5027,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="4" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A68" s="16" t="s">
         <v>16</v>
       </c>
@@ -5051,7 +5053,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="4" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A69" s="16" t="s">
         <v>16</v>
       </c>
@@ -5077,7 +5079,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="3" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="s">
         <v>16</v>
       </c>
@@ -5103,7 +5105,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="2" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A71" s="14" t="s">
         <v>16</v>
       </c>
@@ -5129,7 +5131,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A72" s="13" t="s">
         <v>16</v>
       </c>
@@ -5155,7 +5157,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="3" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
         <v>101</v>
       </c>
@@ -5181,7 +5183,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A74" s="13" t="s">
         <v>104</v>
       </c>
@@ -5207,7 +5209,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="2" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A75" s="14" t="s">
         <v>104</v>
       </c>
@@ -5233,7 +5235,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
         <v>104</v>
       </c>
@@ -5259,7 +5261,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A77" s="13" t="s">
         <v>104</v>
       </c>
@@ -5285,7 +5287,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
         <v>105</v>
       </c>
@@ -5311,7 +5313,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A79" s="14" t="s">
         <v>38</v>
       </c>
@@ -5337,7 +5339,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A80" s="14" t="s">
         <v>113</v>
       </c>
@@ -5363,7 +5365,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="3" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A81" s="15" t="s">
         <v>116</v>
       </c>
@@ -5389,7 +5391,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
         <v>116</v>
       </c>
@@ -5415,7 +5417,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A83" s="13" t="s">
         <v>119</v>
       </c>
@@ -5441,7 +5443,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A84" s="13" t="s">
         <v>119</v>
       </c>
@@ -5467,7 +5469,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A85" s="14" t="s">
         <v>25</v>
       </c>
@@ -5493,7 +5495,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A86" s="14" t="s">
         <v>25</v>
       </c>
@@ -5519,7 +5521,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="s">
         <v>48</v>
       </c>
@@ -5545,7 +5547,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="88" spans="1:8" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" s="3" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A88" s="15" t="s">
         <v>104</v>
       </c>
@@ -5571,7 +5573,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="89" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A89" s="14" t="s">
         <v>104</v>
       </c>
@@ -5597,7 +5599,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="90" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A90" s="14" t="s">
         <v>104</v>
       </c>
@@ -5623,7 +5625,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A91" s="13" t="s">
         <v>110</v>
       </c>
@@ -5649,7 +5651,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A92" s="13" t="s">
         <v>110</v>
       </c>
@@ -5675,7 +5677,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="4" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" s="4" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A93" s="16" t="s">
         <v>128</v>
       </c>
@@ -5701,7 +5703,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" s="3" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
         <v>128</v>
       </c>
@@ -5727,7 +5729,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="4" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" s="4" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A95" s="16" t="s">
         <v>128</v>
       </c>
@@ -5753,7 +5755,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" s="3" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
         <v>31</v>
       </c>
@@ -5779,7 +5781,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="97" spans="1:8" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" s="3" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A97" s="15" t="s">
         <v>31</v>
       </c>
@@ -5805,7 +5807,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" s="3" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
         <v>31</v>
       </c>
@@ -5831,7 +5833,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" s="3" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A99" s="15" t="s">
         <v>16</v>
       </c>
@@ -5857,7 +5859,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A100" s="13" t="s">
         <v>16</v>
       </c>
@@ -5883,7 +5885,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A101" s="13" t="s">
         <v>16</v>
       </c>
@@ -5909,7 +5911,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="102" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A102" s="14" t="s">
         <v>16</v>
       </c>
@@ -5935,7 +5937,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="103" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A103" s="14" t="s">
         <v>128</v>
       </c>
@@ -5961,7 +5963,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="16" t="s">
         <v>16</v>
       </c>
@@ -5987,7 +5989,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="4" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" s="4" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A105" s="16" t="s">
         <v>16</v>
       </c>
@@ -6013,7 +6015,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A106" s="14" t="s">
         <v>16</v>
       </c>
@@ -6039,7 +6041,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A107" s="14" t="s">
         <v>16</v>
       </c>
@@ -6065,7 +6067,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A108" s="13" t="s">
         <v>31</v>
       </c>
@@ -6091,7 +6093,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A109" s="13" t="s">
         <v>128</v>
       </c>
@@ -6117,7 +6119,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A110" s="13" t="s">
         <v>128</v>
       </c>
@@ -6143,7 +6145,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A111" s="13" t="s">
         <v>128</v>
       </c>
@@ -6169,7 +6171,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="112" spans="1:8" s="2" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" s="2" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="14" t="s">
         <v>69</v>
       </c>
@@ -6195,7 +6197,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="113" spans="1:8" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="14" t="s">
         <v>139</v>
       </c>
@@ -6221,7 +6223,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="114" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A114" s="14" t="s">
         <v>4</v>
       </c>
@@ -6247,7 +6249,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="115" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A115" s="14" t="s">
         <v>4</v>
       </c>
@@ -6273,7 +6275,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="116" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="14" t="s">
         <v>145</v>
       </c>
@@ -6299,7 +6301,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="117" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A117" s="14" t="s">
         <v>145</v>
       </c>
@@ -6325,7 +6327,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A118" s="13" t="s">
         <v>146</v>
       </c>
@@ -6351,7 +6353,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A119" s="13" t="s">
         <v>146</v>
       </c>
@@ -6377,7 +6379,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A120" s="13" t="s">
         <v>146</v>
       </c>
@@ -6403,7 +6405,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="121" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A121" s="14" t="s">
         <v>151</v>
       </c>
@@ -6429,7 +6431,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="122" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A122" s="14" t="s">
         <v>16</v>
       </c>
@@ -6455,7 +6457,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A123" s="13" t="s">
         <v>16</v>
       </c>
@@ -6481,7 +6483,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A124" s="13" t="s">
         <v>7</v>
       </c>
@@ -6507,7 +6509,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="13" t="s">
         <v>7</v>
       </c>
@@ -6533,7 +6535,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A126" s="13" t="s">
         <v>4</v>
       </c>
@@ -6559,7 +6561,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="127" spans="1:8" s="2" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" s="2" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="14" t="s">
         <v>38</v>
       </c>
@@ -6585,7 +6587,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A128" s="13" t="s">
         <v>69</v>
       </c>
@@ -6611,7 +6613,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A129" s="13" t="s">
         <v>159</v>
       </c>
@@ -6637,7 +6639,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A130" s="13" t="s">
         <v>38</v>
       </c>
@@ -6663,7 +6665,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="13" t="s">
         <v>69</v>
       </c>
@@ -6689,7 +6691,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="132" spans="1:8" s="2" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" s="2" customFormat="1" ht="48.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="14" t="s">
         <v>38</v>
       </c>
@@ -6715,7 +6717,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="133" spans="1:8" s="2" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" s="2" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="14" t="s">
         <v>54</v>
       </c>
@@ -6741,7 +6743,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A134" s="13" t="s">
         <v>38</v>
       </c>
@@ -6767,7 +6769,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A135" s="13" t="s">
         <v>54</v>
       </c>
@@ -6793,7 +6795,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="13" t="s">
         <v>161</v>
       </c>
@@ -6819,7 +6821,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="13" t="s">
         <v>38</v>
       </c>
@@ -6845,7 +6847,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="138" spans="1:8" s="2" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" s="2" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="14" t="s">
         <v>31</v>
       </c>
@@ -6871,7 +6873,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="139" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A139" s="14" t="s">
         <v>16</v>
       </c>
@@ -6897,7 +6899,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A140" s="13" t="s">
         <v>38</v>
       </c>
@@ -6923,7 +6925,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A141" s="13" t="s">
         <v>38</v>
       </c>
@@ -6949,7 +6951,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="142" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A142" s="14" t="s">
         <v>171</v>
       </c>
@@ -6975,7 +6977,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="143" spans="1:8" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A143" s="14" t="s">
         <v>171</v>
       </c>
@@ -7001,7 +7003,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A144" s="16" t="s">
         <v>171</v>
       </c>
@@ -7027,7 +7029,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A145" s="16" t="s">
         <v>171</v>
       </c>
@@ -7053,7 +7055,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A146" s="13" t="s">
         <v>173</v>
       </c>
@@ -7079,7 +7081,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A147" s="13" t="s">
         <v>45</v>
       </c>
@@ -7105,7 +7107,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A148" s="13" t="s">
         <v>45</v>
       </c>
@@ -7131,7 +7133,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="13" t="s">
         <v>105</v>
       </c>
@@ -7157,7 +7159,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A150" s="13" t="s">
         <v>179</v>
       </c>
@@ -7183,7 +7185,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A151" s="13" t="s">
         <v>180</v>
       </c>
@@ -7209,7 +7211,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A152" s="13" t="s">
         <v>182</v>
       </c>
@@ -7235,7 +7237,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="13" t="s">
         <v>101</v>
       </c>
@@ -7261,7 +7263,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A154" s="13" t="s">
         <v>101</v>
       </c>
@@ -7287,7 +7289,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="13" t="s">
         <v>101</v>
       </c>
@@ -7313,7 +7315,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A156" s="13" t="s">
         <v>101</v>
       </c>
@@ -7339,7 +7341,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="13" t="s">
         <v>42</v>
       </c>
@@ -7365,7 +7367,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A158" s="13" t="s">
         <v>42</v>
       </c>
@@ -7391,7 +7393,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="13" t="s">
         <v>190</v>
       </c>
@@ -7417,7 +7419,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" ht="78" x14ac:dyDescent="0.3">
       <c r="A160" s="13" t="s">
         <v>190</v>
       </c>
@@ -7443,7 +7445,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" ht="78" x14ac:dyDescent="0.3">
       <c r="A161" s="13" t="s">
         <v>190</v>
       </c>
@@ -7469,7 +7471,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" ht="78" x14ac:dyDescent="0.3">
       <c r="A162" s="13" t="s">
         <v>190</v>
       </c>
@@ -7495,7 +7497,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" ht="78" x14ac:dyDescent="0.3">
       <c r="A163" s="13" t="s">
         <v>190</v>
       </c>
@@ -7521,7 +7523,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" ht="78" x14ac:dyDescent="0.3">
       <c r="A164" s="13" t="s">
         <v>190</v>
       </c>
@@ -7547,7 +7549,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" ht="78" x14ac:dyDescent="0.3">
       <c r="A165" s="13" t="s">
         <v>190</v>
       </c>
@@ -7573,15 +7575,13 @@
         <v>192</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>423</v>
-      </c>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C167"/>
+      <c r="D167"/>
+      <c r="E167"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="K167" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
